--- a/GATEWAY/A1#111DOCPLANNERX/Ianiri_Informatica/GipoNext/5.87/report-checklist.xlsx
+++ b/GATEWAY/A1#111DOCPLANNERX/Ianiri_Informatica/GipoNext/5.87/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Downloads\MedicalReportsWithCDA\5.85\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Downloads\MedicalReportsWithCDA\5.87\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B026D-AFA1-4F28-8B90-89E8E5DD151B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD975F7-7BA6-4F88-900E-A8E368FB928C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1574,130 +1574,7 @@
     <t>Non supportata la forma codificata del quesito diagnostico</t>
   </si>
   <si>
-    <t>b74d7b41498f199b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.37eaa4da2bfc26cc2c155ef2037ba74665d0ba72f69910c78211400f4b155329.342d1b7d2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5197f05af95f2f06</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>c0404a4a6d01a872</t>
-  </si>
-  <si>
-    <t>10c9da8640f62ace</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.5d333a7d52b2aa7022d8cf8e9e504258a34e14746eff1d30f0db29fe0724b13d.56fc256edf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>b924d63aa09b169d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3ffd4925b52d02c886e73404efaa3ffa52e1daa147d56b301571e6d48f26e1b8.34a1b72b02^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0790db2416276056</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.ea6a4cfc46be949fba12d32383eefa6970f58ed98ec751758c475a1ad5f2264f.9645d79e19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>fa5d33f40f106d4b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.190.4.4.3de16fcaf7001bb6f89c75b45fb5793eb7f8074bc9641c905c0da1edc84a92f8.e505e7203d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T15:32:20Z</t>
-  </si>
-  <si>
-    <t>1f5e510f7a8a65f4</t>
-  </si>
-  <si>
-    <t>2024-05-20T15:37:24Z</t>
-  </si>
-  <si>
-    <t>7f1feda2fa00da58</t>
-  </si>
-  <si>
-    <t>2024-05-20T15:55:11Z</t>
-  </si>
-  <si>
-    <t>73dc8d96bf2f005d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.b9577e6814^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T16:02:34Z</t>
-  </si>
-  <si>
-    <t>d6cae9b66a5727bf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.0a2765d586^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T16:06:17Z</t>
-  </si>
-  <si>
-    <t>3ec423b15fdb0ad1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.cc4a1b05b2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T16:20:09Z</t>
-  </si>
-  <si>
-    <t>c2621efa561c5c3d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.213065c78a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T16:14:44Z</t>
-  </si>
-  <si>
-    <t>893182a90eb80b15</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.5dc8d61481^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-20T16:24:46Z</t>
-  </si>
-  <si>
-    <t>e06b6933d145c69a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.2d761b281f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-05-17T17:58:18Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T15:28:31Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T15:34:26Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T16:17:09Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T16:47:15Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T17:10:45Z</t>
-  </si>
-  <si>
-    <t>2024-05-17T15:09:54Z</t>
   </si>
   <si>
     <t>Campo token JWT non valido.
@@ -1738,10 +1615,133 @@
 [ERRORE-b6| Sezione Quesito Diagnostico: la sezione DEVE contenere un elemento 'text']</t>
   </si>
   <si>
-    <t>2024-05-17T15:38:14Z</t>
-  </si>
-  <si>
-    <t>2024-05-20T17:10:38Z</t>
+    <t>df29cb51414d9e08</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.37eaa4da2bfc26cc2c155ef2037ba74665d0ba72f69910c78211400f4b155329.892f9d167a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6e923e4d84bd6cbd</t>
+  </si>
+  <si>
+    <t>32635d24059b09df</t>
+  </si>
+  <si>
+    <t>ca6fbe5574e47f4c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.5d333a7d52b2aa7022d8cf8e9e504258a34e14746eff1d30f0db29fe0724b13d.1430a72a8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>73347bf59b599371</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3ffd4925b52d02c886e73404efaa3ffa52e1daa147d56b301571e6d48f26e1b8.8312b4a2c1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>70be9f226745bf2d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.ea6a4cfc46be949fba12d32383eefa6970f58ed98ec751758c475a1ad5f2264f.43a22a59d2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>652beae076f1e3f5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.190.4.4.3de16fcaf7001bb6f89c75b45fb5793eb7f8074bc9641c905c0da1edc84a92f8.9fb6f3f9a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b7c8550ab80bf5d5</t>
+  </si>
+  <si>
+    <t>326f1435ce332298</t>
+  </si>
+  <si>
+    <t>194ccec76b2da210</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.ebdf08099c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>17683d721045fe1b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.9e680cd510^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0e2b3cd53a0cc4e7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.c314e72b074bf1a542385b5b34165141a5bc4306699830199030118de1f648b8.0379c85814^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>7018688c76a6320f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.5dbdc8f214^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>eadb0f64f6f06aef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.945ec92e1e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6ec7bbf062315d10</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.123456.4.4.5.79799e0b6b83559502a1231d2ecf9454352e6079bde9ccf967587391074193be.dfa627d63a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:31:38Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:39:51Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:33:55Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:38:50Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:32:49Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T14:16:14Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T14:17:12Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:35:10Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:36:41Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:40:49Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:42:16Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:42:51Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:43:26Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:44:01Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:37:25Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:44:31Z</t>
+  </si>
+  <si>
+    <t>2024-05-22T12:35:56Z</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1833,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1856,12 +1856,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2118,7 +2112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2181,58 +2175,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -2269,6 +2212,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4737,10 +4732,10 @@
   <dimension ref="A1:T724"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="D46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4778,14 +4773,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="33"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4803,14 +4798,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="33"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4828,12 +4823,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="58" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4852,12 +4847,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="33"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4875,8 +4870,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4993,3807 +4988,3807 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="33" customFormat="1" ht="187.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="24">
+    <row r="10" spans="1:20" s="51" customFormat="1" ht="187.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42">
         <v>11</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G10" s="28" t="s">
+      <c r="F10" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="42">
+        <v>12</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="42">
+        <v>13</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="42">
+        <v>14</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="51" customFormat="1" ht="196.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="42">
+        <v>31</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>369</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J14" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O14" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="51" customFormat="1" ht="181.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="42">
+        <v>32</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J15" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M15" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="51" customFormat="1" ht="160.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="42">
+        <v>39</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="51" customFormat="1" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="42">
+        <v>40</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="N17" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O17" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" s="51" customFormat="1" ht="91.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="42">
+        <v>47</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="O18" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="51" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="42">
+        <v>48</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>371</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="O19" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="42">
+        <v>75</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" s="52" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="42">
+        <v>76</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K21" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42">
+        <v>77</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K22" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="51" customFormat="1" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="42">
+        <v>78</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="H23" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="N23" s="52" t="s">
+        <v>332</v>
+      </c>
+      <c r="O23" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42">
+        <v>79</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K24" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="51" customFormat="1" ht="139.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="42">
+        <v>80</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="H25" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="N25" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="O25" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="53"/>
+      <c r="S25" s="54"/>
+      <c r="T25" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="51" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42">
+        <v>81</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="56" t="s">
+        <v>306</v>
+      </c>
+      <c r="K26" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="42">
+        <v>82</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42">
+        <v>83</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="42">
+        <v>84</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="51" customFormat="1" ht="133.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42">
+        <v>85</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="I30" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="J30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="O30" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42">
+        <v>86</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42">
+        <v>87</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="42">
+        <v>88</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="42">
+        <v>89</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="42">
+        <v>90</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="46"/>
+      <c r="J35" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="47"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="42">
+        <v>91</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="47"/>
+      <c r="Q36" s="47"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42">
+        <v>92</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K37" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47"/>
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42">
+        <v>93</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="51" customFormat="1" ht="136.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="42">
+        <v>147</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>374</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="51" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="42">
+        <v>148</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="42">
+        <v>149</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="42">
+        <v>150</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="49"/>
+      <c r="T42" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="42">
+        <v>151</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="49"/>
+      <c r="T43" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="42">
+        <v>152</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K44" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="42">
+        <v>153</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="47"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="51" customFormat="1" ht="154.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42">
+        <v>154</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F46" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="H46" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N46" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O46" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P46" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q46" s="47"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="42">
+        <v>155</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K47" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="47"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="51" customFormat="1" ht="163.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="42">
+        <v>156</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M48" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="O48" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="49"/>
+      <c r="T48" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="42">
+        <v>157</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="49"/>
+      <c r="T49" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="42">
+        <v>158</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K50" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="49"/>
+      <c r="T50" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="42">
+        <v>159</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K51" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" s="47"/>
+      <c r="M51" s="47"/>
+      <c r="N51" s="47"/>
+      <c r="O51" s="47"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="49"/>
+      <c r="T51" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="42">
+        <v>160</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K52" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="49"/>
+      <c r="T52" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="51" customFormat="1" ht="181.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="42">
+        <v>161</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="H53" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="J53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N53" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q53" s="47"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="49"/>
+      <c r="T53" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="51" customFormat="1" ht="169.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="42">
+        <v>162</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>361</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="J54" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="M54" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="N54" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="O54" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q54" s="47"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="49"/>
+      <c r="T54" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="42">
+        <v>163</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K55" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L55" s="47"/>
+      <c r="M55" s="47"/>
+      <c r="N55" s="47"/>
+      <c r="O55" s="47"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="47"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="49"/>
+      <c r="T55" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="42">
+        <v>164</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K56" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L56" s="47"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="47"/>
+      <c r="O56" s="47"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="47"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="42">
+        <v>165</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K57" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="47"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="42">
+        <v>166</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L58" s="47"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="47"/>
+      <c r="O58" s="47"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="47"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="49"/>
+      <c r="T58" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="42">
+        <v>167</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K59" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="47"/>
+      <c r="Q59" s="47"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="49"/>
+      <c r="T59" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="42">
+        <v>168</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K60" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="L60" s="47"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="47"/>
+      <c r="O60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="47"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="49"/>
+      <c r="T60" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="42">
+        <v>169</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="K61" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="L61" s="47"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="47"/>
+      <c r="O61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="47"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="49"/>
+      <c r="T61" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" s="51" customFormat="1" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="42">
+        <v>224</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="47"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="49"/>
+      <c r="T62" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="42">
+        <v>225</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="47"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="42">
+        <v>226</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" s="45"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="47"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="49"/>
+      <c r="T64" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="42">
+        <v>227</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="45"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="47"/>
+      <c r="L65" s="47"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="47"/>
+      <c r="O65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="47"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="49"/>
+      <c r="T65" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="42">
+        <v>228</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="47"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="49"/>
+      <c r="T66" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="42">
+        <v>229</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="47"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="49"/>
+      <c r="T67" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="42">
+        <v>230</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" s="45"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="47"/>
+      <c r="R68" s="48"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="42">
+        <v>231</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="E69" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="45"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="42">
+        <v>232</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="F70" s="45"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="42">
+        <v>233</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="47"/>
+      <c r="R71" s="48"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="42">
+        <v>234</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="F72" s="45"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="47"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="42">
+        <v>235</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="45"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="47"/>
+      <c r="K73" s="47"/>
+      <c r="L73" s="47"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="47"/>
+      <c r="O73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="49"/>
+      <c r="T73" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="42">
+        <v>236</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E74" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="45"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="47"/>
+      <c r="R74" s="48"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="42">
+        <v>237</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="47"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="47"/>
+      <c r="M75" s="47"/>
+      <c r="N75" s="47"/>
+      <c r="O75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="47"/>
+      <c r="R75" s="48"/>
+      <c r="S75" s="49"/>
+      <c r="T75" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="42">
+        <v>238</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" s="45"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="49"/>
+      <c r="T76" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="42">
+        <v>239</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="E77" s="44" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="47"/>
+      <c r="R77" s="48"/>
+      <c r="S77" s="49"/>
+      <c r="T77" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" s="51" customFormat="1" ht="264" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="42">
+        <v>288</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D78" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F78" s="45"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47"/>
+      <c r="M78" s="47"/>
+      <c r="N78" s="47"/>
+      <c r="O78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="47"/>
+      <c r="R78" s="48"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="42">
+        <v>289</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="47"/>
+      <c r="R79" s="48"/>
+      <c r="S79" s="49"/>
+      <c r="T79" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="42">
+        <v>290</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="47"/>
+      <c r="R80" s="48"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="42">
+        <v>291</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="47"/>
+      <c r="O81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="47"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="42">
+        <v>292</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="47"/>
+      <c r="R82" s="48"/>
+      <c r="S82" s="49"/>
+      <c r="T82" s="50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="42">
+        <v>293</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D83" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="47"/>
+      <c r="P83" s="47"/>
+      <c r="Q83" s="47"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="49"/>
+      <c r="T83" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="42">
+        <v>294</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F84" s="45"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="47"/>
+      <c r="K84" s="47"/>
+      <c r="L84" s="47"/>
+      <c r="M84" s="47"/>
+      <c r="N84" s="47"/>
+      <c r="O84" s="47"/>
+      <c r="P84" s="47"/>
+      <c r="Q84" s="47"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="42">
+        <v>295</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="45"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+      <c r="L85" s="47"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="47"/>
+      <c r="O85" s="47"/>
+      <c r="P85" s="47"/>
+      <c r="Q85" s="47"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="42">
+        <v>296</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C86" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="47"/>
+      <c r="K86" s="47"/>
+      <c r="L86" s="47"/>
+      <c r="M86" s="47"/>
+      <c r="N86" s="47"/>
+      <c r="O86" s="47"/>
+      <c r="P86" s="47"/>
+      <c r="Q86" s="47"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="42">
+        <v>297</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="47"/>
+      <c r="K87" s="47"/>
+      <c r="L87" s="47"/>
+      <c r="M87" s="47"/>
+      <c r="N87" s="47"/>
+      <c r="O87" s="47"/>
+      <c r="P87" s="47"/>
+      <c r="Q87" s="47"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="42">
+        <v>298</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E88" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="F88" s="45"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="47"/>
+      <c r="P88" s="47"/>
+      <c r="Q88" s="47"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="42">
+        <v>299</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F89" s="45"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="47"/>
+      <c r="P89" s="47"/>
+      <c r="Q89" s="47"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="42">
+        <v>300</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" s="45"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="47"/>
+      <c r="K90" s="47"/>
+      <c r="L90" s="47"/>
+      <c r="M90" s="47"/>
+      <c r="N90" s="47"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="47"/>
+      <c r="Q90" s="47"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="42">
+        <v>301</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D91" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="47"/>
+      <c r="N91" s="47"/>
+      <c r="O91" s="47"/>
+      <c r="P91" s="47"/>
+      <c r="Q91" s="47"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="42">
+        <v>302</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="E92" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="45"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="47"/>
+      <c r="P92" s="47"/>
+      <c r="Q92" s="47"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="51" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="42">
+        <v>303</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" s="45"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="47"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="47"/>
+      <c r="P93" s="47"/>
+      <c r="Q93" s="47"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="51" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="42">
+        <v>328</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="F94" s="45"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="47"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="47"/>
+      <c r="Q94" s="47"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="51" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="42">
+        <v>329</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95" s="45"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="47"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" s="51" customFormat="1" ht="315" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="42">
+        <v>330</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="E96" s="44" t="s">
+        <v>230</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="47"/>
+      <c r="N96" s="47"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="47"/>
+      <c r="Q96" s="47"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" s="51" customFormat="1" ht="259.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="42">
+        <v>331</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E97" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="F97" s="45"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="47"/>
+      <c r="K97" s="47"/>
+      <c r="L97" s="47"/>
+      <c r="M97" s="47"/>
+      <c r="N97" s="47"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="47"/>
+      <c r="Q97" s="47"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="51" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="42">
+        <v>344</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="E98" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="F98" s="45"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="47"/>
+      <c r="K98" s="47"/>
+      <c r="L98" s="47"/>
+      <c r="M98" s="47"/>
+      <c r="N98" s="47"/>
+      <c r="O98" s="47"/>
+      <c r="P98" s="47"/>
+      <c r="Q98" s="47"/>
+      <c r="R98" s="48"/>
+      <c r="S98" s="49"/>
+      <c r="T98" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" s="51" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="42">
+        <v>345</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C99" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" s="45"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="47"/>
+      <c r="K99" s="47"/>
+      <c r="L99" s="47"/>
+      <c r="M99" s="47"/>
+      <c r="N99" s="47"/>
+      <c r="O99" s="47"/>
+      <c r="P99" s="47"/>
+      <c r="Q99" s="47"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="49"/>
+      <c r="T99" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" s="51" customFormat="1" ht="315" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="42">
+        <v>346</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D100" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="E100" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="F100" s="45"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="47"/>
+      <c r="K100" s="47"/>
+      <c r="L100" s="47"/>
+      <c r="M100" s="47"/>
+      <c r="N100" s="47"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="49"/>
+      <c r="T100" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="51" customFormat="1" ht="259.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="42">
+        <v>347</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="E101" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="F101" s="45"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="47"/>
+      <c r="K101" s="47"/>
+      <c r="L101" s="47"/>
+      <c r="M101" s="47"/>
+      <c r="N101" s="47"/>
+      <c r="O101" s="47"/>
+      <c r="P101" s="47"/>
+      <c r="Q101" s="47"/>
+      <c r="R101" s="48"/>
+      <c r="S101" s="49"/>
+      <c r="T101" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="51" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="42">
+        <v>356</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="F102" s="45"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="47"/>
+      <c r="K102" s="47"/>
+      <c r="L102" s="47"/>
+      <c r="M102" s="47"/>
+      <c r="N102" s="47"/>
+      <c r="O102" s="47"/>
+      <c r="P102" s="47"/>
+      <c r="Q102" s="47"/>
+      <c r="R102" s="48"/>
+      <c r="S102" s="49"/>
+      <c r="T102" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="51" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="42">
+        <v>357</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="47"/>
+      <c r="K103" s="47"/>
+      <c r="L103" s="47"/>
+      <c r="M103" s="47"/>
+      <c r="N103" s="47"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="47"/>
+      <c r="Q103" s="47"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="49"/>
+      <c r="T103" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="51" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="42">
         <v>364</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="J10" s="29" t="s">
+      <c r="B104" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="45"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="47"/>
+      <c r="K104" s="47"/>
+      <c r="L104" s="47"/>
+      <c r="M104" s="47"/>
+      <c r="N104" s="47"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="47"/>
+      <c r="Q104" s="47"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="49"/>
+      <c r="T104" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="51" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="42">
+        <v>365</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C105" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="E105" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F105" s="45"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="47"/>
+      <c r="K105" s="47"/>
+      <c r="L105" s="47"/>
+      <c r="M105" s="47"/>
+      <c r="N105" s="47"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="47"/>
+      <c r="Q105" s="47"/>
+      <c r="R105" s="48"/>
+      <c r="S105" s="49"/>
+      <c r="T105" s="50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="51" customFormat="1" ht="151.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="42">
+        <v>370</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D106" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E106" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F106" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G106" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="H106" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="I106" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="J106" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32" t="s">
+      <c r="K106" s="47"/>
+      <c r="L106" s="47"/>
+      <c r="M106" s="47"/>
+      <c r="N106" s="47"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="47"/>
+      <c r="Q106" s="47"/>
+      <c r="R106" s="48"/>
+      <c r="S106" s="49"/>
+      <c r="T106" s="50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24">
-        <v>12</v>
-      </c>
-      <c r="B11" s="25" t="s">
+    <row r="107" spans="1:20" s="51" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="42">
+        <v>374</v>
+      </c>
+      <c r="B107" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="32" t="s">
+      <c r="C107" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="E107" s="44" t="s">
+        <v>252</v>
+      </c>
+      <c r="F107" s="45">
+        <v>45434</v>
+      </c>
+      <c r="G107" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="H107" s="46" t="s">
+        <v>363</v>
+      </c>
+      <c r="I107" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="J107" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K107" s="47"/>
+      <c r="L107" s="47"/>
+      <c r="M107" s="47"/>
+      <c r="N107" s="47"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="47"/>
+      <c r="Q107" s="47"/>
+      <c r="R107" s="48"/>
+      <c r="S107" s="49"/>
+      <c r="T107" s="50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="24">
-        <v>13</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24">
-        <v>14</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="33" customFormat="1" ht="196.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24">
-        <v>31</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="O14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="33" customFormat="1" ht="181.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="O15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="33" customFormat="1" ht="160.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24">
-        <v>39</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="N16" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="O16" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="33" customFormat="1" ht="162" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24">
-        <v>40</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="J17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="M17" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="N17" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="O17" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="33" customFormat="1" ht="91.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="24">
-        <v>47</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="O18" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="S18" s="31"/>
-      <c r="T18" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="33" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24">
-        <v>48</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G19" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="O19" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="S19" s="31"/>
-      <c r="T19" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24">
-        <v>75</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24">
-        <v>76</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K21" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24">
-        <v>77</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K22" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="33" customFormat="1" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24">
-        <v>78</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>334</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>335</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="N23" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="O23" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="24">
-        <v>79</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" s="33" customFormat="1" ht="139.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="24">
-        <v>80</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="N25" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="P25" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="33" customFormat="1" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24">
-        <v>81</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="24">
-        <v>82</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="24">
-        <v>83</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K28" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="24">
-        <v>84</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" s="33" customFormat="1" ht="133.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="24">
-        <v>85</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N30" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P30" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="24">
-        <v>86</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24">
-        <v>87</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24">
-        <v>88</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24">
-        <v>89</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K34" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24">
-        <v>90</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24">
-        <v>91</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24">
-        <v>92</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="24">
-        <v>93</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="33" customFormat="1" ht="136.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24">
-        <v>147</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="33" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="24">
-        <v>148</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K40" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24">
-        <v>149</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K41" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24">
-        <v>150</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K42" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="24">
-        <v>151</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="24">
-        <v>152</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K44" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="24">
-        <v>153</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K45" s="29" t="s">
-        <v>316</v>
-      </c>
-      <c r="L45" s="29"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="33" customFormat="1" ht="154.05000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="24">
-        <v>154</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G46" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="I46" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N46" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="O46" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P46" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="24">
-        <v>155</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K47" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="33" customFormat="1" ht="163.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24">
-        <v>156</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G48" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="I48" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N48" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="O48" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P48" s="29" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="24">
-        <v>157</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K49" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="24">
-        <v>158</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="24">
-        <v>159</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K51" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="24">
-        <v>160</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>323</v>
-      </c>
-      <c r="L52" s="29"/>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" s="33" customFormat="1" ht="181.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="24">
-        <v>161</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="F53" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="J53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N53" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="O53" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P53" s="29" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="33" customFormat="1" ht="169.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24">
-        <v>162</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G54" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="I54" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="M54" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="N54" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="O54" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P54" s="29" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="30"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24">
-        <v>163</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K55" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="30"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="24">
-        <v>164</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K56" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="30"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="24">
-        <v>165</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K57" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="24">
-        <v>166</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K58" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="24">
-        <v>167</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K59" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="24">
-        <v>168</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K60" s="29" t="s">
-        <v>313</v>
-      </c>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="24">
-        <v>169</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="29" t="s">
-        <v>306</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="33" customFormat="1" ht="204" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="24">
-        <v>224</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="24">
-        <v>225</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="24">
-        <v>226</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="24">
-        <v>227</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="24">
-        <v>228</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="24">
-        <v>229</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="E67" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="24">
-        <v>230</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="29"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="24">
-        <v>231</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="29"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="24">
-        <v>232</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="29"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="29"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24">
-        <v>233</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E71" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="29"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="29"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="24">
-        <v>234</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="E72" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="29"/>
-      <c r="K72" s="29"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="29"/>
-      <c r="O72" s="29"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="30"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="24">
-        <v>235</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="29"/>
-      <c r="K73" s="29"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="29"/>
-      <c r="O73" s="29"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="29"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="24">
-        <v>236</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="29"/>
-      <c r="K74" s="29"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="29"/>
-      <c r="O74" s="29"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="29"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="24">
-        <v>237</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="E75" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="29"/>
-      <c r="K75" s="29"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="29"/>
-      <c r="O75" s="29"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="29"/>
-      <c r="R75" s="30"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="24">
-        <v>238</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E76" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="29"/>
-      <c r="K76" s="29"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="29"/>
-      <c r="N76" s="29"/>
-      <c r="O76" s="29"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="29"/>
-      <c r="R76" s="30"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="24">
-        <v>239</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="29"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="29"/>
-      <c r="O77" s="29"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="29"/>
-      <c r="R77" s="30"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="33" customFormat="1" ht="264" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="24">
-        <v>288</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="29"/>
-      <c r="K78" s="29"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="29"/>
-      <c r="N78" s="29"/>
-      <c r="O78" s="29"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="29"/>
-      <c r="R78" s="30"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="24">
-        <v>289</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="29"/>
-      <c r="K79" s="29"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="29"/>
-      <c r="N79" s="29"/>
-      <c r="O79" s="29"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="29"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="24">
-        <v>290</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="24">
-        <v>291</v>
-      </c>
-      <c r="B81" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="29"/>
-      <c r="K81" s="29"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="29"/>
-      <c r="N81" s="29"/>
-      <c r="O81" s="29"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="29"/>
-      <c r="R81" s="30"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="24">
-        <v>292</v>
-      </c>
-      <c r="B82" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="29"/>
-      <c r="K82" s="29"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
-      <c r="N82" s="29"/>
-      <c r="O82" s="29"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="30"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="24">
-        <v>293</v>
-      </c>
-      <c r="B83" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="29"/>
-      <c r="K83" s="29"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
-      <c r="N83" s="29"/>
-      <c r="O83" s="29"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="30"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="24">
-        <v>294</v>
-      </c>
-      <c r="B84" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="24">
-        <v>295</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="29"/>
-      <c r="K85" s="29"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="29"/>
-      <c r="N85" s="29"/>
-      <c r="O85" s="29"/>
-      <c r="P85" s="29"/>
-      <c r="Q85" s="29"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="24">
-        <v>296</v>
-      </c>
-      <c r="B86" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="E86" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="29"/>
-      <c r="K86" s="29"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="29"/>
-      <c r="N86" s="29"/>
-      <c r="O86" s="29"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="24">
-        <v>297</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="29"/>
-      <c r="K87" s="29"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="29"/>
-      <c r="N87" s="29"/>
-      <c r="O87" s="29"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="31"/>
-      <c r="T87" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="24">
-        <v>298</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="29"/>
-      <c r="K88" s="29"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="29"/>
-      <c r="N88" s="29"/>
-      <c r="O88" s="29"/>
-      <c r="P88" s="29"/>
-      <c r="Q88" s="29"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="31"/>
-      <c r="T88" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="24">
-        <v>299</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="29"/>
-      <c r="K89" s="29"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="29"/>
-      <c r="N89" s="29"/>
-      <c r="O89" s="29"/>
-      <c r="P89" s="29"/>
-      <c r="Q89" s="29"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="31"/>
-      <c r="T89" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="24">
-        <v>300</v>
-      </c>
-      <c r="B90" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="31"/>
-      <c r="T90" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="24">
-        <v>301</v>
-      </c>
-      <c r="B91" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="31"/>
-      <c r="T91" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="24">
-        <v>302</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="29"/>
-      <c r="K92" s="29"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="29"/>
-      <c r="N92" s="29"/>
-      <c r="O92" s="29"/>
-      <c r="P92" s="29"/>
-      <c r="Q92" s="29"/>
-      <c r="R92" s="30"/>
-      <c r="S92" s="31"/>
-      <c r="T92" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="24">
-        <v>303</v>
-      </c>
-      <c r="B93" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="29"/>
-      <c r="K93" s="29"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="29"/>
-      <c r="N93" s="29"/>
-      <c r="O93" s="29"/>
-      <c r="P93" s="29"/>
-      <c r="Q93" s="29"/>
-      <c r="R93" s="30"/>
-      <c r="S93" s="31"/>
-      <c r="T93" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="33" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="24">
-        <v>328</v>
-      </c>
-      <c r="B94" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="31"/>
-      <c r="T94" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="33" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="24">
-        <v>329</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="29"/>
-      <c r="K95" s="29"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="29"/>
-      <c r="N95" s="29"/>
-      <c r="O95" s="29"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="31"/>
-      <c r="T95" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" s="33" customFormat="1" ht="315" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="24">
-        <v>330</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="29"/>
-      <c r="K96" s="29"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="29"/>
-      <c r="N96" s="29"/>
-      <c r="O96" s="29"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="30"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" s="33" customFormat="1" ht="259.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="24">
-        <v>331</v>
-      </c>
-      <c r="B97" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E97" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="29"/>
-      <c r="K97" s="29"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="29"/>
-      <c r="N97" s="29"/>
-      <c r="O97" s="29"/>
-      <c r="P97" s="29"/>
-      <c r="Q97" s="29"/>
-      <c r="R97" s="30"/>
-      <c r="S97" s="31"/>
-      <c r="T97" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" s="33" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="24">
-        <v>344</v>
-      </c>
-      <c r="B98" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>233</v>
-      </c>
-      <c r="E98" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="30"/>
-      <c r="S98" s="31"/>
-      <c r="T98" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" s="33" customFormat="1" ht="242.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="24">
-        <v>345</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E99" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="29"/>
-      <c r="K99" s="29"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="29"/>
-      <c r="N99" s="29"/>
-      <c r="O99" s="29"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="30"/>
-      <c r="S99" s="31"/>
-      <c r="T99" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" s="33" customFormat="1" ht="315" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="24">
-        <v>346</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E100" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="29"/>
-      <c r="K100" s="29"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="29"/>
-      <c r="O100" s="29"/>
-      <c r="P100" s="29"/>
-      <c r="Q100" s="29"/>
-      <c r="R100" s="30"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" s="33" customFormat="1" ht="259.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="24">
-        <v>347</v>
-      </c>
-      <c r="B101" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="29"/>
-      <c r="K101" s="29"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="29"/>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
-      <c r="Q101" s="29"/>
-      <c r="R101" s="30"/>
-      <c r="S101" s="31"/>
-      <c r="T101" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" s="33" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="24">
-        <v>356</v>
-      </c>
-      <c r="B102" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="29"/>
-      <c r="K102" s="29"/>
-      <c r="L102" s="29"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="29"/>
-      <c r="O102" s="29"/>
-      <c r="P102" s="29"/>
-      <c r="Q102" s="29"/>
-      <c r="R102" s="30"/>
-      <c r="S102" s="31"/>
-      <c r="T102" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" s="33" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="24">
-        <v>357</v>
-      </c>
-      <c r="B103" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="F103" s="27"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
-      <c r="L103" s="29"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="29"/>
-      <c r="O103" s="29"/>
-      <c r="P103" s="29"/>
-      <c r="Q103" s="29"/>
-      <c r="R103" s="30"/>
-      <c r="S103" s="31"/>
-      <c r="T103" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" s="33" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="24">
-        <v>364</v>
-      </c>
-      <c r="B104" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F104" s="27"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="29"/>
-      <c r="K104" s="29"/>
-      <c r="L104" s="29"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="29"/>
-      <c r="O104" s="29"/>
-      <c r="P104" s="29"/>
-      <c r="Q104" s="29"/>
-      <c r="R104" s="30"/>
-      <c r="S104" s="31"/>
-      <c r="T104" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" s="33" customFormat="1" ht="249.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="24">
-        <v>365</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F105" s="27"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="30"/>
-      <c r="S105" s="31"/>
-      <c r="T105" s="32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" s="33" customFormat="1" ht="151.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="24">
-        <v>370</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E106" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="F106" s="27">
-        <v>45429</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="I106" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="J106" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="K106" s="29"/>
-      <c r="L106" s="29"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="29"/>
-      <c r="O106" s="29"/>
-      <c r="P106" s="29"/>
-      <c r="Q106" s="29"/>
-      <c r="R106" s="30"/>
-      <c r="S106" s="31"/>
-      <c r="T106" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" s="33" customFormat="1" ht="139.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="24">
-        <v>374</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="E107" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F107" s="27">
-        <v>45432</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="I107" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="J107" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="K107" s="29"/>
-      <c r="L107" s="29"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="29"/>
-      <c r="O107" s="29"/>
-      <c r="P107" s="29"/>
-      <c r="Q107" s="29"/>
-      <c r="R107" s="30"/>
-      <c r="S107" s="31"/>
-      <c r="T107" s="32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F108" s="42"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="43"/>
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
-      <c r="Q108" s="43"/>
-      <c r="R108" s="44"/>
-      <c r="S108" s="45"/>
-      <c r="T108" s="46"/>
-    </row>
-    <row r="109" spans="1:20" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F109" s="42"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="43"/>
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
-      <c r="Q109" s="43"/>
-      <c r="R109" s="44"/>
-      <c r="S109" s="45"/>
-      <c r="T109" s="46"/>
+    <row r="108" spans="1:20" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="26"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="27"/>
+      <c r="S108" s="28"/>
+      <c r="T108" s="29"/>
+    </row>
+    <row r="109" spans="1:20" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="26"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="27"/>
+      <c r="S109" s="28"/>
+      <c r="T109" s="29"/>
     </row>
     <row r="110" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F110" s="12"/>
@@ -13428,7 +13423,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -13439,7 +13434,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q16 Q106 Q10:Q14 Q18 Q20:Q22 Q24 Q26:Q29 Q31:Q38 G14</xm:sqref>
+          <xm:sqref>Q16 Q106 Q10:Q14 Q18 Q20:Q22 Q24 Q26:Q29 Q31:Q38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
